--- a/DPHM_E_PPO5EZ.xlsx
+++ b/DPHM_E_PPO5EZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricardo\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Escritorio\lab2_ernc\lab_2_ernc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B7394E-E5D5-4FEB-A96B-3DEABBD18932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FEC87-ACC5-48C2-8DA6-4435BCD1A527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="73">
   <si>
     <t>DATOS GENERADOS POR EL EXPLORADOR DE ENERGIA SOLAR</t>
   </si>
@@ -266,9 +266,6 @@
   <si>
     <t>Primavera</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -320,6 +317,3648 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Curvas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> de Irradiancia calculadas para los días típicos por estación</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>glb!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verano </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>glb!$B$29:$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>glb!$B$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8859000000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.124613333333329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>291.52128999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>526.21198000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>729.51396999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>890.33920000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>981.36674666666659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>995.64606333333325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>942.40045999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>822.65372666666678</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>644.17129333333332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>427.19895666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201.1726166666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.591979999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4965-46FE-8BD0-2B1C0838DF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>glb!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Otoño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>glb!$B$29:$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>glb!$B$31:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8305166666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.16564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>378.74621666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>553.60182666666662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>689.15637666666669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>754.28944999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>779.24126666666655</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>729.6149099999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>634.26788999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475.91977666666668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>301.93824000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.681813333333324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85624</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4965-46FE-8BD0-2B1C0838DF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>glb!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>invierno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>glb!$B$29:$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>glb!$B$32:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.700593333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232.85321333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>361.69517999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>450.30034000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>479.54549333333335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>507.85287666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>485.37602999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>434.89928333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>328.16663666666665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220.75185333333332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.395853333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4965-46FE-8BD0-2B1C0838DF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>glb!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Primavera</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>glb!$B$29:$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>glb!$B$33:$Y$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4119166666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.167246666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271.84519999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>460.44120333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>624.64271333333329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>754.19213666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>809.26823333333323</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>809.11656333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>738.44476333333341</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>622.31849333333332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465.28004000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>273.00134333333335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107.74166000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.557056666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4965-46FE-8BD0-2B1C0838DF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="399426976"/>
+        <c:axId val="399433216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="399426976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Hora</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399433216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="399433216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Irradiancia [W/m^2]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399426976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Curvas de Temperatura calculadas para los días típicos por estación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>temp!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verano </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>temp!$B$28:$Y$28</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>temp!$B$29:$Y$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>16.66799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.036473333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.422003333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.93718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.568879999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.00155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.285336666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.627546666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.836903333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.320036666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.833416666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.17112333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.914316666666668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.168843333333331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.761323333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.359286666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.552350000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.510376666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.119530000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.126486666666665</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.047440000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.514169999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.346683333333335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.434806666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7761-4144-AE40-08B160B24980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>temp!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Otoño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>temp!$B$28:$Y$28</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>temp!$B$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12.684553333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.125536666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.60707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.168006666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.839186666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.588936666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.143733333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.354463333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.55782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.722873333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.301556666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.622283333333332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.662226666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.129876666666664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.026033333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.055183333333332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.263073333333335</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.861646666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.914370000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.112533333333335</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.829196666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.808443333333335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.914959999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.229440000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7761-4144-AE40-08B160B24980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>temp!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>invierno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>temp!$B$28:$Y$28</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>temp!$B$31:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.5716266666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2100599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8966533333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5917133333333338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.32097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1031433333333327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9396000000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5251866666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.030076666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6915633333333338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6875300000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.778193333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.555143333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.02605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.874549999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.035316666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.415903333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.879859999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.022179999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.713216666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8079633333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1039833333333338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.5231533333333331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0071733333333341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7761-4144-AE40-08B160B24980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>temp!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Primavera</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>temp!$B$28:$Y$28</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>temp!$B$32:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>11.220410000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.65799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.175176666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7162366666666653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3427600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9438999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.767786666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7299399999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.742036666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.178753333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.494503333333338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.6219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.390926666666669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.630869999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.205813333333328</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.141796666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.481446666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.325209999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.711783333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.64095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.933549999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.663220000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.762206666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.952489999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7761-4144-AE40-08B160B24980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46341520"/>
+        <c:axId val="46342000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46341520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Hora</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46342000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46342000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Temperatura [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46341520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06338219-DFE3-788A-6B3F-550AF1FC26FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E71C00-E3DA-40AC-9BA7-9094876C08D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,7 +4250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -623,7 +4262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1759,13 +5398,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3419,13 +7058,394 @@
         <v>11.952489999999999</v>
       </c>
     </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>73</v>
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29">
+        <v>16.66799</v>
+      </c>
+      <c r="C29">
+        <v>16.036473333333333</v>
+      </c>
+      <c r="D29">
+        <v>15.422003333333334</v>
+      </c>
+      <c r="E29">
+        <v>14.93718</v>
+      </c>
+      <c r="F29">
+        <v>14.568879999999998</v>
+      </c>
+      <c r="G29">
+        <v>14.00155</v>
+      </c>
+      <c r="H29">
+        <v>14.285336666666666</v>
+      </c>
+      <c r="I29">
+        <v>15.627546666666666</v>
+      </c>
+      <c r="J29">
+        <v>17.836903333333336</v>
+      </c>
+      <c r="K29">
+        <v>20.320036666666667</v>
+      </c>
+      <c r="L29">
+        <v>22.833416666666665</v>
+      </c>
+      <c r="M29">
+        <v>25.17112333333333</v>
+      </c>
+      <c r="N29">
+        <v>26.914316666666668</v>
+      </c>
+      <c r="O29">
+        <v>28.168843333333331</v>
+      </c>
+      <c r="P29">
+        <v>28.761323333333333</v>
+      </c>
+      <c r="Q29">
+        <v>28.359286666666666</v>
+      </c>
+      <c r="R29">
+        <v>27.552350000000001</v>
+      </c>
+      <c r="S29">
+        <v>26.510376666666669</v>
+      </c>
+      <c r="T29">
+        <v>25.119530000000001</v>
+      </c>
+      <c r="U29">
+        <v>23.126486666666665</v>
+      </c>
+      <c r="V29">
+        <v>21.047440000000002</v>
+      </c>
+      <c r="W29">
+        <v>19.514169999999996</v>
+      </c>
+      <c r="X29">
+        <v>18.346683333333335</v>
+      </c>
+      <c r="Y29">
+        <v>17.434806666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>12.684553333333334</v>
+      </c>
+      <c r="C30">
+        <v>12.125536666666667</v>
+      </c>
+      <c r="D30">
+        <v>11.60707</v>
+      </c>
+      <c r="E30">
+        <v>11.168006666666665</v>
+      </c>
+      <c r="F30">
+        <v>10.839186666666665</v>
+      </c>
+      <c r="G30">
+        <v>10.588936666666667</v>
+      </c>
+      <c r="H30">
+        <v>10.143733333333333</v>
+      </c>
+      <c r="I30">
+        <v>10.354463333333333</v>
+      </c>
+      <c r="J30">
+        <v>11.55782</v>
+      </c>
+      <c r="K30">
+        <v>13.722873333333334</v>
+      </c>
+      <c r="L30">
+        <v>16.301556666666666</v>
+      </c>
+      <c r="M30">
+        <v>18.622283333333332</v>
+      </c>
+      <c r="N30">
+        <v>20.662226666666665</v>
+      </c>
+      <c r="O30">
+        <v>22.129876666666664</v>
+      </c>
+      <c r="P30">
+        <v>23.026033333333334</v>
+      </c>
+      <c r="Q30">
+        <v>23.055183333333332</v>
+      </c>
+      <c r="R30">
+        <v>22.263073333333335</v>
+      </c>
+      <c r="S30">
+        <v>20.861646666666669</v>
+      </c>
+      <c r="T30">
+        <v>18.914370000000002</v>
+      </c>
+      <c r="U30">
+        <v>17.112533333333335</v>
+      </c>
+      <c r="V30">
+        <v>15.829196666666666</v>
+      </c>
+      <c r="W30">
+        <v>14.808443333333335</v>
+      </c>
+      <c r="X30">
+        <v>13.914959999999999</v>
+      </c>
+      <c r="Y30">
+        <v>13.229440000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31">
+        <v>7.5716266666666669</v>
+      </c>
+      <c r="C31">
+        <v>7.2100599999999995</v>
+      </c>
+      <c r="D31">
+        <v>6.8966533333333331</v>
+      </c>
+      <c r="E31">
+        <v>6.5917133333333338</v>
+      </c>
+      <c r="F31">
+        <v>6.32097</v>
+      </c>
+      <c r="G31">
+        <v>6.1031433333333327</v>
+      </c>
+      <c r="H31">
+        <v>5.9396000000000013</v>
+      </c>
+      <c r="I31">
+        <v>5.5251866666666665</v>
+      </c>
+      <c r="J31">
+        <v>6.030076666666667</v>
+      </c>
+      <c r="K31">
+        <v>7.6915633333333338</v>
+      </c>
+      <c r="L31">
+        <v>9.6875300000000006</v>
+      </c>
+      <c r="M31">
+        <v>11.778193333333334</v>
+      </c>
+      <c r="N31">
+        <v>13.555143333333334</v>
+      </c>
+      <c r="O31">
+        <v>15.02605</v>
+      </c>
+      <c r="P31">
+        <v>15.874549999999999</v>
+      </c>
+      <c r="Q31">
+        <v>16.035316666666667</v>
+      </c>
+      <c r="R31">
+        <v>15.415903333333333</v>
+      </c>
+      <c r="S31">
+        <v>13.879859999999999</v>
+      </c>
+      <c r="T31">
+        <v>12.022179999999999</v>
+      </c>
+      <c r="U31">
+        <v>10.713216666666666</v>
+      </c>
+      <c r="V31">
+        <v>9.8079633333333334</v>
+      </c>
+      <c r="W31">
+        <v>9.1039833333333338</v>
+      </c>
+      <c r="X31">
+        <v>8.5231533333333331</v>
+      </c>
+      <c r="Y31">
+        <v>8.0071733333333341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>11.220410000000001</v>
+      </c>
+      <c r="C32">
+        <v>10.65799</v>
+      </c>
+      <c r="D32">
+        <v>10.175176666666667</v>
+      </c>
+      <c r="E32">
+        <v>9.7162366666666653</v>
+      </c>
+      <c r="F32">
+        <v>9.3427600000000002</v>
+      </c>
+      <c r="G32">
+        <v>8.9438999999999993</v>
+      </c>
+      <c r="H32">
+        <v>8.767786666666666</v>
+      </c>
+      <c r="I32">
+        <v>9.7299399999999991</v>
+      </c>
+      <c r="J32">
+        <v>11.742036666666666</v>
+      </c>
+      <c r="K32">
+        <v>14.178753333333333</v>
+      </c>
+      <c r="L32">
+        <v>16.494503333333338</v>
+      </c>
+      <c r="M32">
+        <v>18.6219</v>
+      </c>
+      <c r="N32">
+        <v>20.390926666666669</v>
+      </c>
+      <c r="O32">
+        <v>21.630869999999998</v>
+      </c>
+      <c r="P32">
+        <v>22.205813333333328</v>
+      </c>
+      <c r="Q32">
+        <v>22.141796666666664</v>
+      </c>
+      <c r="R32">
+        <v>21.481446666666667</v>
+      </c>
+      <c r="S32">
+        <v>20.325209999999998</v>
+      </c>
+      <c r="T32">
+        <v>18.711783333333333</v>
+      </c>
+      <c r="U32">
+        <v>16.64095</v>
+      </c>
+      <c r="V32">
+        <v>14.933549999999999</v>
+      </c>
+      <c r="W32">
+        <v>13.663220000000001</v>
+      </c>
+      <c r="X32">
+        <v>12.762206666666666</v>
+      </c>
+      <c r="Y32">
+        <v>11.952489999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3435,7 +7455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4575,7 +8595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5715,7 +9735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6855,7 +10875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6938,13 +10958,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:Z25"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8605,8 +12625,394 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>8.8859000000000012</v>
+      </c>
+      <c r="I30">
+        <v>68.124613333333329</v>
+      </c>
+      <c r="J30">
+        <v>291.52128999999996</v>
+      </c>
+      <c r="K30">
+        <v>526.21198000000004</v>
+      </c>
+      <c r="L30">
+        <v>729.51396999999997</v>
+      </c>
+      <c r="M30">
+        <v>890.33920000000001</v>
+      </c>
+      <c r="N30">
+        <v>981.36674666666659</v>
+      </c>
+      <c r="O30">
+        <v>995.64606333333325</v>
+      </c>
+      <c r="P30">
+        <v>942.40045999999995</v>
+      </c>
+      <c r="Q30">
+        <v>822.65372666666678</v>
+      </c>
+      <c r="R30">
+        <v>644.17129333333332</v>
+      </c>
+      <c r="S30">
+        <v>427.19895666666667</v>
+      </c>
+      <c r="T30">
+        <v>201.1726166666667</v>
+      </c>
+      <c r="U30">
+        <v>30.591979999999996</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3.8305166666666666</v>
+      </c>
+      <c r="J31">
+        <v>123.16564</v>
+      </c>
+      <c r="K31">
+        <v>378.74621666666667</v>
+      </c>
+      <c r="L31">
+        <v>553.60182666666662</v>
+      </c>
+      <c r="M31">
+        <v>689.15637666666669</v>
+      </c>
+      <c r="N31">
+        <v>754.28944999999987</v>
+      </c>
+      <c r="O31">
+        <v>779.24126666666655</v>
+      </c>
+      <c r="P31">
+        <v>729.6149099999999</v>
+      </c>
+      <c r="Q31">
+        <v>634.26788999999997</v>
+      </c>
+      <c r="R31">
+        <v>475.91977666666668</v>
+      </c>
+      <c r="S31">
+        <v>301.93824000000001</v>
+      </c>
+      <c r="T31">
+        <v>78.681813333333324</v>
+      </c>
+      <c r="U31">
+        <v>0.85624</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>16.700593333333334</v>
+      </c>
+      <c r="K32">
+        <v>232.85321333333334</v>
+      </c>
+      <c r="L32">
+        <v>361.69517999999999</v>
+      </c>
+      <c r="M32">
+        <v>450.30034000000001</v>
+      </c>
+      <c r="N32">
+        <v>479.54549333333335</v>
+      </c>
+      <c r="O32">
+        <v>507.85287666666665</v>
+      </c>
+      <c r="P32">
+        <v>485.37602999999996</v>
+      </c>
+      <c r="Q32">
+        <v>434.89928333333336</v>
+      </c>
+      <c r="R32">
+        <v>328.16663666666665</v>
+      </c>
+      <c r="S32">
+        <v>220.75185333333332</v>
+      </c>
+      <c r="T32">
+        <v>13.395853333333333</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>6.4119166666666665</v>
+      </c>
+      <c r="I33">
+        <v>72.167246666666657</v>
+      </c>
+      <c r="J33">
+        <v>271.84519999999998</v>
+      </c>
+      <c r="K33">
+        <v>460.44120333333331</v>
+      </c>
+      <c r="L33">
+        <v>624.64271333333329</v>
+      </c>
+      <c r="M33">
+        <v>754.19213666666667</v>
+      </c>
+      <c r="N33">
+        <v>809.26823333333323</v>
+      </c>
+      <c r="O33">
+        <v>809.11656333333337</v>
+      </c>
+      <c r="P33">
+        <v>738.44476333333341</v>
+      </c>
+      <c r="Q33">
+        <v>622.31849333333332</v>
+      </c>
+      <c r="R33">
+        <v>465.28004000000004</v>
+      </c>
+      <c r="S33">
+        <v>273.00134333333335</v>
+      </c>
+      <c r="T33">
+        <v>107.74166000000001</v>
+      </c>
+      <c r="U33">
+        <v>5.557056666666667</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8614,9 +13020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9756,7 +14162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10894,9 +15300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12036,7 +16442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13174,9 +17580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14316,7 +18722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
